--- a/.playwright-mcp/CUI-PMI-Schedule-Report-20260120.xlsx
+++ b/.playwright-mcp/CUI-PMI-Schedule-Report-20260120.xlsx
@@ -425,7 +425,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 06:25:48Z</v>
+        <v>Generated: 2026-01-20 09:19:02Z</v>
       </c>
     </row>
     <row r="5">

--- a/.playwright-mcp/CUI-PMI-Schedule-Report-20260120.xlsx
+++ b/.playwright-mcp/CUI-PMI-Schedule-Report-20260120.xlsx
@@ -425,7 +425,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 09:19:02Z</v>
+        <v>Generated: 2026-01-20 09:44:36Z</v>
       </c>
     </row>
     <row r="5">
